--- a/reference/Sri Balaji/vendor.xlsx
+++ b/reference/Sri Balaji/vendor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M41\Software\Calsoft\Sri Balaji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MetricProject\reference\Sri Balaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB79872-D1F4-430D-8B24-11DA57C930CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BBA9D-5E1A-42E7-AFC9-4A57145F8408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C16D0C5B-AC24-4D8D-AAA0-B9F98AB722E2}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -168,6 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -223,13 +215,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +542,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D16" activeCellId="1" sqref="K2 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +550,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -569,46 +564,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1"/>
@@ -620,10 +615,10 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>45303</v>
       </c>
       <c r="E2" t="s">
@@ -635,8 +630,17 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
@@ -647,13 +651,13 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>45303</v>
       </c>
       <c r="E3" t="s">
@@ -665,8 +669,17 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -676,13 +689,13 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>45303</v>
       </c>
       <c r="E4" t="s">
@@ -696,6 +709,15 @@
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>41</v>
@@ -705,13 +727,13 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>45303</v>
       </c>
       <c r="E5" t="s">
@@ -725,6 +747,15 @@
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>41</v>
@@ -734,13 +765,13 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>45303</v>
       </c>
       <c r="E6" t="s">
@@ -754,6 +785,15 @@
       </c>
       <c r="H6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
@@ -763,13 +803,13 @@
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>45303</v>
       </c>
       <c r="E7" t="s">
@@ -781,8 +821,17 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -792,13 +841,13 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>45303</v>
       </c>
       <c r="E8" t="s">
@@ -810,8 +859,17 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
@@ -821,13 +879,13 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>45303</v>
       </c>
       <c r="E9" t="s">
@@ -839,8 +897,17 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -850,13 +917,13 @@
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>45303</v>
       </c>
       <c r="E10" t="s">
@@ -868,45 +935,55 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="N10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>